--- a/evaluation/YAGO3-10/evaluation-by-generation-100@1.xlsx
+++ b/evaluation/YAGO3-10/evaluation-by-generation-100@1.xlsx
@@ -771,35 +771,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>json_object</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01677148846960167</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01677148846960167</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01677148846960167</v>
+        <v>0.3215686274509804</v>
       </c>
       <c r="F9" t="n">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G9" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -810,35 +810,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>json_object</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.01677148846960167</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3176470588235294</v>
+        <v>0.01677148846960167</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3215686274509804</v>
+        <v>0.01677148846960167</v>
       </c>
       <c r="F10" t="n">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
